--- a/Assignments/Assignment6/Data/AddressesForOutliers.xlsx
+++ b/Assignments/Assignment6/Data/AddressesForOutliers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="820" windowWidth="27640" windowHeight="16300"/>
+    <workbookView xWindow="1320" yWindow="460" windowWidth="27640" windowHeight="16300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
   <si>
     <t>Gramercy</t>
   </si>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>182 7 AVENUE SOUTH</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/142+E+96th+St,+New+York,+NY+10128/@40.7857012,-73.9506261,3a,75y,200.43h,90t/data=!3m7!1e1!3m5!1siecpZD5CuQRE4O4WWEgQDw!2e0!6s%2F%2Fgeo0.ggpht.com%2Fcbk%3Fpanoid%3DiecpZD5CuQRE4O4WWEgQDw%26output%3Dthumbnail%26cb_client%3Dsearch.TACTILE.gps%26thumb%3D2%26w%3D86%26h%3D86%26yaw%3D200.43108%26pitch%3D0%26thumbfov%3D100!7i16384!8i8192!4m5!3m4!1s0x89c258a6874263ef:0x867a335462b092e!8m2!3d40.785463!4d-73.950736</t>
   </si>
 </sst>
 </file>
@@ -684,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -767,19 +770,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
@@ -788,10 +778,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
@@ -808,10 +798,10 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
@@ -828,10 +818,10 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
         <v>33</v>
@@ -848,10 +838,10 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
         <v>38</v>
@@ -868,10 +858,10 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
         <v>43</v>
@@ -888,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
         <v>48</v>
@@ -908,10 +898,10 @@
         <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
         <v>53</v>
@@ -927,8 +917,11 @@
       <c r="B15" t="s">
         <v>55</v>
       </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
         <v>57</v>
@@ -945,7 +938,7 @@
         <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
         <v>61</v>
@@ -961,11 +954,8 @@
       <c r="B17" t="s">
         <v>63</v>
       </c>
-      <c r="C17" t="s">
-        <v>64</v>
-      </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
         <v>66</v>
@@ -982,10 +972,10 @@
         <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
         <v>71</v>
@@ -1002,10 +992,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
         <v>76</v>
@@ -1022,10 +1012,10 @@
         <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
         <v>81</v>
@@ -1042,10 +1032,10 @@
         <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
         <v>86</v>
@@ -1062,10 +1052,10 @@
         <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
         <v>91</v>
@@ -1082,10 +1072,10 @@
         <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
         <v>96</v>
@@ -1102,16 +1092,39 @@
         <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
         <v>101</v>
       </c>
       <c r="F24" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
